--- a/개발현황/주간별개발현황/20250530_금주개발현황.xlsx
+++ b/개발현황/주간별개발현황/20250530_금주개발현황.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3CLASS0_007\Desktop\팀프로젝트\개발현황\주간별개발현황\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3CLASS0_007\Desktop\TP_MAIN\개발현황\주간별개발현황\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B4A930-E7B7-4337-A34C-CF49210CCE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7D90E3-54C9-4B24-ACBF-DDE418F54CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>20250530_금주개발진행사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,10 @@
    4-3-1) 관리자 -&gt; 관리자 페이지 이동
    4-3-2) 일반 사용자 -&gt; 메인 페이지 이동 
  5) 관리자 페이지 개발중 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -158,6 +162,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -438,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -450,13 +455,19 @@
     <col min="2" max="2" width="75.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="214.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="214.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -464,7 +475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -472,7 +483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="313.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="313.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
